--- a/Lotto/아바타법시트_참조.xlsx
+++ b/Lotto/아바타법시트_참조.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Lotto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Git\Idea\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55921E7-F11B-4C67-969A-C8AED994DA19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BED1B-396C-4D9C-A64D-235030678977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="744" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="-2280" yWindow="5865" windowWidth="17310" windowHeight="14175" tabRatio="744" activeTab="7" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="FAQ" sheetId="13" r:id="rId1"/>
@@ -1735,7 +1735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08B9AFA-3C13-4A48-96DD-054D6211487C}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1797,7 +1797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42BC51-A499-4296-93A8-A9628DAD2B88}">
   <dimension ref="C2:AG123"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7109,7 +7111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8C04B-54B7-45BB-82C4-11A1E3745EDB}">
   <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7786,7 +7790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F8485-8E02-47D1-9B79-96D42ADC7F29}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9676,7 +9682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA34D2E-029C-4D6D-A0F4-21BAF8E7488D}">
   <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9702,7 +9710,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>30000</v>
+        <v>13600</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="13.5" x14ac:dyDescent="0.25">
@@ -9713,7 +9721,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="13">
-        <v>100</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -9765,11 +9773,11 @@
       <c r="J6" s="21"/>
       <c r="K6" s="17">
         <f>E3</f>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9778,37 +9786,37 @@
       </c>
       <c r="D7" s="5">
         <f>SUM(L$6:L6)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="15">
         <f>$E$2*5%</f>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="7">
         <f>K6</f>
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="I7" s="22">
         <f>ROUND(H7*(1.2%+1),2)</f>
-        <v>101.2</v>
+        <v>172.04</v>
       </c>
       <c r="J7" s="23">
         <f>L6</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K7" s="18">
         <f>ROUND(H7*(G8+1),2)</f>
-        <v>99</v>
+        <v>168.3</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -9817,109 +9825,109 @@
       </c>
       <c r="D8" s="5">
         <f>SUM(L$6:L7)</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" ref="F8:F26" si="1">$E$2*5%</f>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G8" s="20">
         <v>-0.01</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ref="H8:H19" si="2">K7</f>
-        <v>99</v>
+        <v>168.3</v>
       </c>
       <c r="I8" s="22">
         <f t="shared" ref="I8:I26" si="3">ROUND(H8*(1.2%+1),2)</f>
-        <v>100.19</v>
+        <v>170.32</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" ref="J8:J26" si="4">L7</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ref="K8:K12" si="5">ROUND(H8*(G9+1),2)</f>
-        <v>98.01</v>
+        <v>166.62</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>SUM(L$6:L8)</f>
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G9" s="20">
         <v>-0.01</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="2"/>
-        <v>98.01</v>
+        <v>166.62</v>
       </c>
       <c r="I9" s="22">
         <f t="shared" si="3"/>
-        <v>99.19</v>
+        <v>168.62</v>
       </c>
       <c r="J9" s="23">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="5"/>
-        <v>97.03</v>
+        <v>164.95</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>SUM(L$6:L9)</f>
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G10" s="20">
         <v>-0.01</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>97.03</v>
+        <v>164.95</v>
       </c>
       <c r="I10" s="22">
         <f t="shared" si="3"/>
-        <v>98.19</v>
+        <v>166.93</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="5"/>
-        <v>96.06</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M10" s="14"/>
       <c r="O10" s="14"/>
@@ -9927,569 +9935,569 @@
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5">
         <f>SUM(L$6:L10)</f>
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G11" s="20">
         <v>-0.01</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>96.06</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="I11" s="22">
         <f t="shared" si="3"/>
-        <v>97.21</v>
+        <v>165.26</v>
       </c>
       <c r="J11" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="5"/>
-        <v>95.1</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <f>SUM(L$6:L11)</f>
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G12" s="20">
         <v>-0.01</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="2"/>
-        <v>95.1</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" si="3"/>
-        <v>96.24</v>
+        <v>163.61000000000001</v>
       </c>
       <c r="J12" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="5"/>
-        <v>94.15</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
         <f>SUM(L$6:L12)</f>
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G13" s="20">
         <v>-0.01</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="2"/>
-        <v>94.15</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="3"/>
-        <v>95.28</v>
+        <v>161.97</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K13" s="18">
         <f>ROUND(H13*(G14+1),2)</f>
-        <v>93.21</v>
+        <v>158.44999999999999</v>
       </c>
       <c r="L13" s="16">
         <f>ROUND(F14/K13,0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>SUM(L$6:L13)</f>
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G14" s="20">
         <v>-0.01</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>93.21</v>
+        <v>158.44999999999999</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="3"/>
-        <v>94.33</v>
+        <v>160.35</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ref="K14:K19" si="6">ROUND(H14*(G15+1),2)</f>
-        <v>92.28</v>
+        <v>156.87</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" ref="L14:L19" si="7">ROUND(F15/K14,0)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <f>SUM(L$6:L14)</f>
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G15" s="20">
         <v>-0.01</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="2"/>
-        <v>92.28</v>
+        <v>156.87</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="3"/>
-        <v>93.39</v>
+        <v>158.75</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="6"/>
-        <v>91.36</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f>SUM(L$6:L15)</f>
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G16" s="20">
         <v>-0.01</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="2"/>
-        <v>91.36</v>
+        <v>155.30000000000001</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="3"/>
-        <v>92.46</v>
+        <v>157.16</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="6"/>
-        <v>90.45</v>
+        <v>153.75</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5">
         <f>SUM(L$6:L16)</f>
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G17" s="20">
         <v>-0.01</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>90.45</v>
+        <v>153.75</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="3"/>
-        <v>91.54</v>
+        <v>155.6</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="6"/>
-        <v>89.55</v>
+        <v>152.21</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5">
         <f>SUM(L$6:L17)</f>
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G18" s="20">
         <v>-0.01</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="2"/>
-        <v>89.55</v>
+        <v>152.21</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="3"/>
-        <v>90.62</v>
+        <v>154.04</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="6"/>
-        <v>88.65</v>
+        <v>150.69</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="5">
         <f>SUM(L$6:L18)</f>
-        <v>207</v>
+        <v>53</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G19" s="20">
         <v>-0.01</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="2"/>
-        <v>88.65</v>
+        <v>150.69</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="3"/>
-        <v>89.71</v>
+        <v>152.5</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="6"/>
-        <v>87.76</v>
+        <v>149.18</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="7"/>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5">
         <f>SUM(L$6:L19)</f>
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G20" s="20">
         <v>-0.01</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" ref="H20:H26" si="8">K19</f>
-        <v>87.76</v>
+        <v>149.18</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="3"/>
-        <v>88.81</v>
+        <v>150.97</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" ref="K20:K25" si="9">ROUND(H20*(G21+1),2)</f>
-        <v>86.88</v>
+        <v>147.69</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20:L25" si="10">ROUND(F21/K20,0)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="5">
         <f>SUM(L$6:L20)</f>
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G21" s="20">
         <v>-0.01</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="8"/>
-        <v>86.88</v>
+        <v>147.69</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="3"/>
-        <v>87.92</v>
+        <v>149.46</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="9"/>
-        <v>86.01</v>
+        <v>146.21</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="10"/>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="5">
         <f>SUM(L$6:L21)</f>
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G22" s="20">
         <v>-0.01</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="8"/>
-        <v>86.01</v>
+        <v>146.21</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="3"/>
-        <v>87.04</v>
+        <v>147.96</v>
       </c>
       <c r="J22" s="23">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="9"/>
-        <v>85.15</v>
+        <v>144.75</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>SUM(L$6:L22)</f>
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G23" s="20">
         <v>-0.01</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="8"/>
-        <v>85.15</v>
+        <v>144.75</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="3"/>
-        <v>86.17</v>
+        <v>146.49</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="9"/>
-        <v>84.3</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="5">
         <f>SUM(L$6:L23)</f>
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G24" s="20">
         <v>-0.01</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="8"/>
-        <v>84.3</v>
+        <v>143.30000000000001</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="3"/>
-        <v>85.31</v>
+        <v>145.02000000000001</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="9"/>
-        <v>83.46</v>
+        <v>141.87</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="5">
         <f>SUM(L$6:L24)</f>
-        <v>312</v>
+        <v>83</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G25" s="20">
         <v>-0.01</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="8"/>
-        <v>83.46</v>
+        <v>141.87</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="3"/>
-        <v>84.46</v>
+        <v>143.57</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="9"/>
-        <v>82.63</v>
+        <v>140.44999999999999</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="10"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5">
         <f>SUM(L$6:L25)</f>
-        <v>330</v>
+        <v>88</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="G26" s="20">
         <v>-0.01</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="8"/>
-        <v>82.63</v>
+        <v>140.44999999999999</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="3"/>
-        <v>83.62</v>
+        <v>142.13999999999999</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>
@@ -10512,7 +10520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747308E-9F14-4374-89B2-4F3F86775E84}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10536,7 +10546,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>30000</v>
+        <v>21400</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" x14ac:dyDescent="0.25">
@@ -10547,7 +10557,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="13">
-        <v>100</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10599,11 +10609,11 @@
       <c r="J6" s="21"/>
       <c r="K6" s="17">
         <f>E3</f>
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10612,37 +10622,37 @@
       </c>
       <c r="D7" s="5">
         <f>SUM(L$6:L6)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="15">
         <f>$E$2*2%</f>
-        <v>600</v>
+        <v>428</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="7">
         <f>K6</f>
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I7" s="22">
         <f>ROUND(H7*(1%+1),2)</f>
-        <v>101</v>
+        <v>242.4</v>
       </c>
       <c r="J7" s="23">
         <f>L6</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K7" s="18">
         <f>ROUND(H7*(G8+1),2)</f>
-        <v>99.5</v>
+        <v>238.8</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10651,677 +10661,677 @@
       </c>
       <c r="D8" s="5">
         <f>SUM(L$6:L7)</f>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" ref="F8:F22" si="1">$E$2*5%</f>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G8" s="20">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ref="H8:H26" si="2">K7</f>
-        <v>99.5</v>
+        <v>238.8</v>
       </c>
       <c r="I8" s="22">
         <f>ROUND(H8*(2%+1),2)</f>
-        <v>101.49</v>
+        <v>243.58</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" ref="J8:J26" si="3">L7</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ref="K8:K12" si="4">ROUND(H8*(G9+1),2)</f>
-        <v>98.51</v>
+        <v>236.41</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>SUM(L$6:L8)</f>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="15">
         <f>$E$2*7%</f>
-        <v>2100</v>
+        <v>1498.0000000000002</v>
       </c>
       <c r="G9" s="20">
         <v>-0.01</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="2"/>
-        <v>98.51</v>
+        <v>236.41</v>
       </c>
       <c r="I9" s="22">
         <f>ROUND(H9*(3%+1),2)</f>
-        <v>101.47</v>
+        <v>243.5</v>
       </c>
       <c r="J9" s="23">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="4"/>
-        <v>97.03</v>
+        <v>232.86</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>SUM(L$6:L9)</f>
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="15">
         <f>$E$2*7%</f>
-        <v>2100</v>
+        <v>1498.0000000000002</v>
       </c>
       <c r="G10" s="20">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>97.03</v>
+        <v>232.86</v>
       </c>
       <c r="I10" s="22">
         <f>ROUND(H10*(3.5%+1),2)</f>
-        <v>100.43</v>
+        <v>241.01</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="4"/>
-        <v>95.09</v>
+        <v>228.2</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5">
         <f>SUM(L$6:L10)</f>
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="15">
         <f>$E$2*7%</f>
-        <v>2100</v>
+        <v>1498.0000000000002</v>
       </c>
       <c r="G11" s="20">
         <v>-0.02</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>95.09</v>
+        <v>228.2</v>
       </c>
       <c r="I11" s="22">
         <f>ROUND(H11*(5%+1),2)</f>
-        <v>99.84</v>
+        <v>239.61</v>
       </c>
       <c r="J11" s="23">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>92.71</v>
+        <v>222.5</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <f>SUM(L$6:L11)</f>
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="15">
         <f>$E$2*7%</f>
-        <v>2100</v>
+        <v>1498.0000000000002</v>
       </c>
       <c r="G12" s="20">
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="2"/>
-        <v>92.71</v>
+        <v>222.5</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I26" si="5">ROUND(H12*(5%+1),2)</f>
-        <v>97.35</v>
+        <v>233.63</v>
       </c>
       <c r="J12" s="23">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="4"/>
-        <v>89.93</v>
+        <v>215.83</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
         <f>SUM(L$6:L12)</f>
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="15">
         <f>$E$2*6%</f>
-        <v>1800</v>
+        <v>1284</v>
       </c>
       <c r="G13" s="20">
         <v>-0.03</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="2"/>
-        <v>89.93</v>
+        <v>215.83</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="5"/>
-        <v>94.43</v>
+        <v>226.62</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K13" s="18">
         <f>ROUND(H13*(G14+1),2)</f>
-        <v>87.23</v>
+        <v>209.36</v>
       </c>
       <c r="L13" s="16">
         <f>ROUND(F14/K13,0)</f>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>SUM(L$6:L13)</f>
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G14" s="20">
         <v>-0.03</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>87.23</v>
+        <v>209.36</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="5"/>
-        <v>91.59</v>
+        <v>219.83</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ref="K14:K25" si="6">ROUND(H14*(G15+1),2)</f>
-        <v>84.61</v>
+        <v>203.08</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" ref="L14:L25" si="7">ROUND(F15/K14,0)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <f>SUM(L$6:L14)</f>
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G15" s="20">
         <v>-0.03</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="2"/>
-        <v>84.61</v>
+        <v>203.08</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="5"/>
-        <v>88.84</v>
+        <v>213.23</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="6"/>
-        <v>82.07</v>
+        <v>196.99</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f>SUM(L$6:L15)</f>
-        <v>182</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G16" s="20">
         <v>-0.03</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="2"/>
-        <v>82.07</v>
+        <v>196.99</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="5"/>
-        <v>86.17</v>
+        <v>206.84</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="6"/>
-        <v>79.61</v>
+        <v>191.08</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5">
         <f>SUM(L$6:L16)</f>
-        <v>201</v>
+        <v>59</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G17" s="20">
         <v>-0.03</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>79.61</v>
+        <v>191.08</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="5"/>
-        <v>83.59</v>
+        <v>200.63</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="6"/>
-        <v>77.22</v>
+        <v>185.35</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5">
         <f>SUM(L$6:L17)</f>
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G18" s="20">
         <v>-0.03</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="2"/>
-        <v>77.22</v>
+        <v>185.35</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="5"/>
-        <v>81.08</v>
+        <v>194.62</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="6"/>
-        <v>74.900000000000006</v>
+        <v>179.79</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="5">
         <f>SUM(L$6:L18)</f>
-        <v>240</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G19" s="20">
         <v>-0.03</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="2"/>
-        <v>74.900000000000006</v>
+        <v>179.79</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="5"/>
-        <v>78.650000000000006</v>
+        <v>188.78</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="6"/>
-        <v>72.650000000000006</v>
+        <v>174.4</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5">
         <f>SUM(L$6:L19)</f>
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G20" s="20">
         <v>-0.03</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="2"/>
-        <v>72.650000000000006</v>
+        <v>174.4</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="5"/>
-        <v>76.28</v>
+        <v>183.12</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="6"/>
-        <v>70.47</v>
+        <v>169.17</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="7"/>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="5">
         <f>SUM(L$6:L20)</f>
-        <v>282</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G21" s="20">
         <v>-0.03</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="2"/>
-        <v>70.47</v>
+        <v>169.17</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="5"/>
-        <v>73.989999999999995</v>
+        <v>177.63</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="6"/>
-        <v>68.36</v>
+        <v>164.09</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="7"/>
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="5">
         <f>SUM(L$6:L21)</f>
-        <v>304</v>
+        <v>90</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>1070</v>
       </c>
       <c r="G22" s="20">
         <v>-0.03</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="2"/>
-        <v>68.36</v>
+        <v>164.09</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="5"/>
-        <v>71.78</v>
+        <v>172.29</v>
       </c>
       <c r="J22" s="23">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="6"/>
-        <v>66.31</v>
+        <v>159.16999999999999</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="7"/>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>SUM(L$6:L22)</f>
-        <v>322</v>
+        <v>95</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="15">
         <f>$E$2*4%</f>
-        <v>1200</v>
+        <v>856</v>
       </c>
       <c r="G23" s="20">
         <v>-0.03</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="2"/>
-        <v>66.31</v>
+        <v>159.16999999999999</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="5"/>
-        <v>69.63</v>
+        <v>167.13</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="6"/>
-        <v>64.319999999999993</v>
+        <v>154.38999999999999</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="5">
         <f>SUM(L$6:L23)</f>
-        <v>341</v>
+        <v>101</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="15">
         <f>$E$2*4%</f>
-        <v>1200</v>
+        <v>856</v>
       </c>
       <c r="G24" s="20">
         <v>-0.03</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="2"/>
-        <v>64.319999999999993</v>
+        <v>154.38999999999999</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="5"/>
-        <v>67.540000000000006</v>
+        <v>162.11000000000001</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="6"/>
-        <v>62.39</v>
+        <v>149.76</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="7"/>
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="5">
         <f>SUM(L$6:L24)</f>
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="15">
         <f>$E$2*3%</f>
-        <v>900</v>
+        <v>642</v>
       </c>
       <c r="G25" s="20">
         <v>-0.03</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="2"/>
-        <v>62.39</v>
+        <v>149.76</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="5"/>
-        <v>65.510000000000005</v>
+        <v>157.25</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="6"/>
-        <v>60.52</v>
+        <v>145.27000000000001</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="7"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5">
         <f>SUM(L$6:L25)</f>
-        <v>370</v>
+        <v>109</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="15">
         <f>$E$2*3%</f>
-        <v>900</v>
+        <v>642</v>
       </c>
       <c r="G26" s="20">
         <v>-0.03</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="2"/>
-        <v>60.52</v>
+        <v>145.27000000000001</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="5"/>
-        <v>63.55</v>
+        <v>152.53</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>

--- a/Lotto/아바타법시트_참조.xlsx
+++ b/Lotto/아바타법시트_참조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Git\Idea\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309BED1B-396C-4D9C-A64D-235030678977}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD8619-FEFB-4B00-8BA0-7EE99287C6D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2280" yWindow="5865" windowWidth="17310" windowHeight="14175" tabRatio="744" activeTab="7" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="17310" windowHeight="14175" tabRatio="744" activeTab="7" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="FAQ" sheetId="13" r:id="rId1"/>
@@ -10521,7 +10521,7 @@
   <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10546,7 +10546,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="8">
-        <v>21400</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="13.5" x14ac:dyDescent="0.25">
@@ -10557,7 +10557,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="13">
-        <v>240</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10609,11 +10609,11 @@
       <c r="J6" s="21"/>
       <c r="K6" s="17">
         <f>E3</f>
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="L6" s="16">
         <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10622,37 +10622,37 @@
       </c>
       <c r="D7" s="5">
         <f>SUM(L$6:L6)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="15">
         <f>$E$2*2%</f>
-        <v>428</v>
+        <v>800</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>65</v>
       </c>
       <c r="H7" s="7">
         <f>K6</f>
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="I7" s="22">
         <f>ROUND(H7*(1%+1),2)</f>
-        <v>242.4</v>
+        <v>171.7</v>
       </c>
       <c r="J7" s="23">
         <f>L6</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" s="18">
         <f>ROUND(H7*(G8+1),2)</f>
-        <v>238.8</v>
+        <v>169.15</v>
       </c>
       <c r="L7" s="16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -10661,677 +10661,677 @@
       </c>
       <c r="D8" s="5">
         <f>SUM(L$6:L7)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="15">
         <f t="shared" ref="F8:F22" si="1">$E$2*5%</f>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="20">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" ref="H8:H26" si="2">K7</f>
-        <v>238.8</v>
+        <v>169.15</v>
       </c>
       <c r="I8" s="22">
         <f>ROUND(H8*(2%+1),2)</f>
-        <v>243.58</v>
+        <v>172.53</v>
       </c>
       <c r="J8" s="23">
         <f t="shared" ref="J8:J26" si="3">L7</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K8" s="18">
         <f t="shared" ref="K8:K12" si="4">ROUND(H8*(G9+1),2)</f>
-        <v>236.41</v>
+        <v>167.46</v>
       </c>
       <c r="L8" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>SUM(L$6:L8)</f>
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="15">
         <f>$E$2*7%</f>
-        <v>1498.0000000000002</v>
+        <v>2800.0000000000005</v>
       </c>
       <c r="G9" s="20">
         <v>-0.01</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="2"/>
-        <v>236.41</v>
+        <v>167.46</v>
       </c>
       <c r="I9" s="22">
         <f>ROUND(H9*(3%+1),2)</f>
-        <v>243.5</v>
+        <v>172.48</v>
       </c>
       <c r="J9" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K9" s="18">
         <f t="shared" si="4"/>
-        <v>232.86</v>
+        <v>164.95</v>
       </c>
       <c r="L9" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>SUM(L$6:L9)</f>
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="15">
         <f>$E$2*7%</f>
-        <v>1498.0000000000002</v>
+        <v>2800.0000000000005</v>
       </c>
       <c r="G10" s="20">
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>232.86</v>
+        <v>164.95</v>
       </c>
       <c r="I10" s="22">
         <f>ROUND(H10*(3.5%+1),2)</f>
-        <v>241.01</v>
+        <v>170.72</v>
       </c>
       <c r="J10" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K10" s="18">
         <f t="shared" si="4"/>
-        <v>228.2</v>
+        <v>161.65</v>
       </c>
       <c r="L10" s="16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5">
         <f>SUM(L$6:L10)</f>
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="15">
         <f>$E$2*7%</f>
-        <v>1498.0000000000002</v>
+        <v>2800.0000000000005</v>
       </c>
       <c r="G11" s="20">
         <v>-0.02</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="2"/>
-        <v>228.2</v>
+        <v>161.65</v>
       </c>
       <c r="I11" s="22">
         <f>ROUND(H11*(5%+1),2)</f>
-        <v>239.61</v>
+        <v>169.73</v>
       </c>
       <c r="J11" s="23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>222.5</v>
+        <v>157.61000000000001</v>
       </c>
       <c r="L11" s="16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <f>SUM(L$6:L11)</f>
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="15">
         <f>$E$2*7%</f>
-        <v>1498.0000000000002</v>
+        <v>2800.0000000000005</v>
       </c>
       <c r="G12" s="20">
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="2"/>
-        <v>222.5</v>
+        <v>157.61000000000001</v>
       </c>
       <c r="I12" s="22">
         <f t="shared" ref="I12:I26" si="5">ROUND(H12*(5%+1),2)</f>
-        <v>233.63</v>
+        <v>165.49</v>
       </c>
       <c r="J12" s="23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="4"/>
-        <v>215.83</v>
+        <v>152.88</v>
       </c>
       <c r="L12" s="16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
         <f>SUM(L$6:L12)</f>
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="15">
         <f>$E$2*6%</f>
-        <v>1284</v>
+        <v>2400</v>
       </c>
       <c r="G13" s="20">
         <v>-0.03</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="2"/>
-        <v>215.83</v>
+        <v>152.88</v>
       </c>
       <c r="I13" s="22">
         <f t="shared" si="5"/>
-        <v>226.62</v>
+        <v>160.52000000000001</v>
       </c>
       <c r="J13" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K13" s="18">
         <f>ROUND(H13*(G14+1),2)</f>
-        <v>209.36</v>
+        <v>148.29</v>
       </c>
       <c r="L13" s="16">
         <f>ROUND(F14/K13,0)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>SUM(L$6:L13)</f>
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G14" s="20">
         <v>-0.03</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="2"/>
-        <v>209.36</v>
+        <v>148.29</v>
       </c>
       <c r="I14" s="22">
         <f t="shared" si="5"/>
-        <v>219.83</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="J14" s="23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K14" s="18">
         <f t="shared" ref="K14:K25" si="6">ROUND(H14*(G15+1),2)</f>
-        <v>203.08</v>
+        <v>143.84</v>
       </c>
       <c r="L14" s="16">
         <f t="shared" ref="L14:L25" si="7">ROUND(F15/K14,0)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <f>SUM(L$6:L14)</f>
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="20">
         <v>-0.03</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="2"/>
-        <v>203.08</v>
+        <v>143.84</v>
       </c>
       <c r="I15" s="22">
         <f t="shared" si="5"/>
-        <v>213.23</v>
+        <v>151.03</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K15" s="18">
         <f t="shared" si="6"/>
-        <v>196.99</v>
+        <v>139.52000000000001</v>
       </c>
       <c r="L15" s="16">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f>SUM(L$6:L15)</f>
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="20">
         <v>-0.03</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="2"/>
-        <v>196.99</v>
+        <v>139.52000000000001</v>
       </c>
       <c r="I16" s="22">
         <f t="shared" si="5"/>
-        <v>206.84</v>
+        <v>146.5</v>
       </c>
       <c r="J16" s="23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K16" s="18">
         <f t="shared" si="6"/>
-        <v>191.08</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="L16" s="16">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5">
         <f>SUM(L$6:L16)</f>
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G17" s="20">
         <v>-0.03</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="2"/>
-        <v>191.08</v>
+        <v>135.33000000000001</v>
       </c>
       <c r="I17" s="22">
         <f t="shared" si="5"/>
-        <v>200.63</v>
+        <v>142.1</v>
       </c>
       <c r="J17" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K17" s="18">
         <f t="shared" si="6"/>
-        <v>185.35</v>
+        <v>131.27000000000001</v>
       </c>
       <c r="L17" s="16">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5">
         <f>SUM(L$6:L17)</f>
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F18" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="20">
         <v>-0.03</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="2"/>
-        <v>185.35</v>
+        <v>131.27000000000001</v>
       </c>
       <c r="I18" s="22">
         <f t="shared" si="5"/>
-        <v>194.62</v>
+        <v>137.83000000000001</v>
       </c>
       <c r="J18" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K18" s="18">
         <f t="shared" si="6"/>
-        <v>179.79</v>
+        <v>127.33</v>
       </c>
       <c r="L18" s="16">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="5">
         <f>SUM(L$6:L18)</f>
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="20">
         <v>-0.03</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="2"/>
-        <v>179.79</v>
+        <v>127.33</v>
       </c>
       <c r="I19" s="22">
         <f t="shared" si="5"/>
-        <v>188.78</v>
+        <v>133.69999999999999</v>
       </c>
       <c r="J19" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K19" s="18">
         <f t="shared" si="6"/>
-        <v>174.4</v>
+        <v>123.51</v>
       </c>
       <c r="L19" s="16">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5">
         <f>SUM(L$6:L19)</f>
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="20">
         <v>-0.03</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="2"/>
-        <v>174.4</v>
+        <v>123.51</v>
       </c>
       <c r="I20" s="22">
         <f t="shared" si="5"/>
-        <v>183.12</v>
+        <v>129.69</v>
       </c>
       <c r="J20" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K20" s="18">
         <f t="shared" si="6"/>
-        <v>169.17</v>
+        <v>119.8</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="5">
         <f>SUM(L$6:L20)</f>
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G21" s="20">
         <v>-0.03</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="2"/>
-        <v>169.17</v>
+        <v>119.8</v>
       </c>
       <c r="I21" s="22">
         <f t="shared" si="5"/>
-        <v>177.63</v>
+        <v>125.79</v>
       </c>
       <c r="J21" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K21" s="18">
         <f t="shared" si="6"/>
-        <v>164.09</v>
+        <v>116.21</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="5">
         <f>SUM(L$6:L21)</f>
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="20">
         <v>-0.03</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="2"/>
-        <v>164.09</v>
+        <v>116.21</v>
       </c>
       <c r="I22" s="22">
         <f t="shared" si="5"/>
-        <v>172.29</v>
+        <v>122.02</v>
       </c>
       <c r="J22" s="23">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K22" s="18">
         <f t="shared" si="6"/>
-        <v>159.16999999999999</v>
+        <v>112.72</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>SUM(L$6:L22)</f>
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="15">
         <f>$E$2*4%</f>
-        <v>856</v>
+        <v>1600</v>
       </c>
       <c r="G23" s="20">
         <v>-0.03</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="2"/>
-        <v>159.16999999999999</v>
+        <v>112.72</v>
       </c>
       <c r="I23" s="22">
         <f t="shared" si="5"/>
-        <v>167.13</v>
+        <v>118.36</v>
       </c>
       <c r="J23" s="23">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K23" s="18">
         <f t="shared" si="6"/>
-        <v>154.38999999999999</v>
+        <v>109.34</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="5">
         <f>SUM(L$6:L23)</f>
-        <v>101</v>
+        <v>268</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F24" s="15">
         <f>$E$2*4%</f>
-        <v>856</v>
+        <v>1600</v>
       </c>
       <c r="G24" s="20">
         <v>-0.03</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="2"/>
-        <v>154.38999999999999</v>
+        <v>109.34</v>
       </c>
       <c r="I24" s="22">
         <f t="shared" si="5"/>
-        <v>162.11000000000001</v>
+        <v>114.81</v>
       </c>
       <c r="J24" s="23">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="K24" s="18">
         <f t="shared" si="6"/>
-        <v>149.76</v>
+        <v>106.06</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="5">
         <f>SUM(L$6:L24)</f>
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="15">
         <f>$E$2*3%</f>
-        <v>642</v>
+        <v>1200</v>
       </c>
       <c r="G25" s="20">
         <v>-0.03</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="2"/>
-        <v>149.76</v>
+        <v>106.06</v>
       </c>
       <c r="I25" s="22">
         <f t="shared" si="5"/>
-        <v>157.25</v>
+        <v>111.36</v>
       </c>
       <c r="J25" s="23">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K25" s="18">
         <f t="shared" si="6"/>
-        <v>145.27000000000001</v>
+        <v>102.88</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5">
         <f>SUM(L$6:L25)</f>
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="15">
         <f>$E$2*3%</f>
-        <v>642</v>
+        <v>1200</v>
       </c>
       <c r="G26" s="20">
         <v>-0.03</v>
       </c>
       <c r="H26" s="7">
         <f t="shared" si="2"/>
-        <v>145.27000000000001</v>
+        <v>102.88</v>
       </c>
       <c r="I26" s="22">
         <f t="shared" si="5"/>
-        <v>152.53</v>
+        <v>108.02</v>
       </c>
       <c r="J26" s="23">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K26" s="16">
         <v>0</v>

--- a/Lotto/아바타법시트_참조.xlsx
+++ b/Lotto/아바타법시트_참조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Git\Idea\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BD8619-FEFB-4B00-8BA0-7EE99287C6D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E082C1-8960-460F-9D09-E950E5F36FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1425" windowWidth="17310" windowHeight="14175" tabRatio="744" activeTab="7" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="744" activeTab="7" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="FAQ" sheetId="13" r:id="rId1"/>
@@ -10521,7 +10521,7 @@
   <dimension ref="B2:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10612,7 +10612,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="16">
-        <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
+        <f>ROUND(F7/K6,0)</f>
         <v>5</v>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
         <v>169.15</v>
       </c>
       <c r="L7" s="16">
-        <f t="shared" si="0"/>
+        <f>ROUND(F8/K7,0)</f>
         <v>12</v>
       </c>
     </row>
@@ -10667,14 +10667,14 @@
         <v>16</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ref="F8:F22" si="1">$E$2*5%</f>
+        <f t="shared" ref="F8:F22" si="0">$E$2*5%</f>
         <v>2000</v>
       </c>
       <c r="G8" s="20">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H26" si="2">K7</f>
+        <f t="shared" ref="H8:H26" si="1">K7</f>
         <v>169.15</v>
       </c>
       <c r="I8" s="22">
@@ -10682,15 +10682,15 @@
         <v>172.53</v>
       </c>
       <c r="J8" s="23">
-        <f t="shared" ref="J8:J26" si="3">L7</f>
+        <f t="shared" ref="J8:J26" si="2">L7</f>
         <v>12</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" ref="K8:K12" si="4">ROUND(H8*(G9+1),2)</f>
+        <f t="shared" ref="K8:K12" si="3">ROUND(H8*(G9+1),2)</f>
         <v>167.46</v>
       </c>
       <c r="L8" s="16">
-        <f t="shared" si="0"/>
+        <f>ROUND(F9/K8,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
         <v>-0.01</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>167.46</v>
       </c>
       <c r="I9" s="22">
@@ -10718,15 +10718,15 @@
         <v>172.48</v>
       </c>
       <c r="J9" s="23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K9" s="18">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="4"/>
         <v>164.95</v>
       </c>
       <c r="L9" s="16">
-        <f t="shared" si="0"/>
+        <f>ROUND(F10/K9,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -10746,7 +10746,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>164.95</v>
       </c>
       <c r="I10" s="22">
@@ -10754,15 +10754,15 @@
         <v>170.72</v>
       </c>
       <c r="J10" s="23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K10" s="18">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="4"/>
         <v>161.65</v>
       </c>
       <c r="L10" s="16">
-        <f t="shared" si="0"/>
+        <f>ROUND(F11/K10,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
         <v>-0.02</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>161.65</v>
       </c>
       <c r="I11" s="22">
@@ -10790,15 +10790,15 @@
         <v>169.73</v>
       </c>
       <c r="J11" s="23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K11" s="18">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="4"/>
         <v>157.61000000000001</v>
       </c>
       <c r="L11" s="16">
-        <f t="shared" si="0"/>
+        <f>ROUND(F12/K11,0)</f>
         <v>18</v>
       </c>
     </row>
@@ -10818,23 +10818,23 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>157.61000000000001</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" ref="I12:I26" si="5">ROUND(H12*(5%+1),2)</f>
+        <f t="shared" ref="I12:I26" si="4">ROUND(H12*(5%+1),2)</f>
         <v>165.49</v>
       </c>
       <c r="J12" s="23">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="K12" s="18">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="4"/>
         <v>152.88</v>
       </c>
       <c r="L12" s="16">
-        <f t="shared" si="0"/>
+        <f>ROUND(F13/K12,0)</f>
         <v>16</v>
       </c>
     </row>
@@ -10854,15 +10854,15 @@
         <v>-0.03</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>152.88</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>160.52000000000001</v>
       </c>
       <c r="J13" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="K13" s="18">
@@ -10883,30 +10883,30 @@
         <v>22</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G14" s="20">
         <v>-0.03</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>148.29</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>155.69999999999999</v>
       </c>
       <c r="J14" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="K14" s="18">
-        <f t="shared" ref="K14:K25" si="6">ROUND(H14*(G15+1),2)</f>
+        <f t="shared" ref="K14:K25" si="5">ROUND(H14*(G15+1),2)</f>
         <v>143.84</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" ref="L14:L25" si="7">ROUND(F15/K14,0)</f>
+        <f>ROUND(F15/K14,0)</f>
         <v>14</v>
       </c>
     </row>
@@ -10919,30 +10919,30 @@
         <v>23</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G15" s="20">
         <v>-0.03</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>143.84</v>
       </c>
       <c r="I15" s="22">
+        <f t="shared" si="4"/>
+        <v>151.03</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K15" s="18">
         <f t="shared" si="5"/>
-        <v>151.03</v>
-      </c>
-      <c r="J15" s="23">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="6"/>
         <v>139.52000000000001</v>
       </c>
       <c r="L15" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F16/K15,0)</f>
         <v>14</v>
       </c>
     </row>
@@ -10955,30 +10955,30 @@
         <v>24</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G16" s="20">
         <v>-0.03</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>139.52000000000001</v>
       </c>
       <c r="I16" s="22">
+        <f t="shared" si="4"/>
+        <v>146.5</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K16" s="18">
         <f t="shared" si="5"/>
-        <v>146.5</v>
-      </c>
-      <c r="J16" s="23">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="6"/>
         <v>135.33000000000001</v>
       </c>
       <c r="L16" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F17/K16,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -10991,30 +10991,30 @@
         <v>25</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G17" s="20">
         <v>-0.03</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>135.33000000000001</v>
       </c>
       <c r="I17" s="22">
+        <f t="shared" si="4"/>
+        <v>142.1</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K17" s="18">
         <f t="shared" si="5"/>
-        <v>142.1</v>
-      </c>
-      <c r="J17" s="23">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="6"/>
         <v>131.27000000000001</v>
       </c>
       <c r="L17" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F18/K17,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -11027,30 +11027,30 @@
         <v>26</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G18" s="20">
         <v>-0.03</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>131.27000000000001</v>
       </c>
       <c r="I18" s="22">
+        <f t="shared" si="4"/>
+        <v>137.83000000000001</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K18" s="18">
         <f t="shared" si="5"/>
-        <v>137.83000000000001</v>
-      </c>
-      <c r="J18" s="23">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="6"/>
         <v>127.33</v>
       </c>
       <c r="L18" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F19/K18,0)</f>
         <v>16</v>
       </c>
     </row>
@@ -11063,30 +11063,30 @@
         <v>27</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G19" s="20">
         <v>-0.03</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>127.33</v>
       </c>
       <c r="I19" s="22">
+        <f t="shared" si="4"/>
+        <v>133.69999999999999</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K19" s="18">
         <f t="shared" si="5"/>
-        <v>133.69999999999999</v>
-      </c>
-      <c r="J19" s="23">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="6"/>
         <v>123.51</v>
       </c>
       <c r="L19" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F20/K19,0)</f>
         <v>16</v>
       </c>
     </row>
@@ -11099,30 +11099,30 @@
         <v>28</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G20" s="20">
         <v>-0.03</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>123.51</v>
       </c>
       <c r="I20" s="22">
+        <f t="shared" si="4"/>
+        <v>129.69</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="K20" s="18">
         <f t="shared" si="5"/>
-        <v>129.69</v>
-      </c>
-      <c r="J20" s="23">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="6"/>
         <v>119.8</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F21/K20,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -11135,30 +11135,30 @@
         <v>29</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G21" s="20">
         <v>-0.03</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>119.8</v>
       </c>
       <c r="I21" s="22">
+        <f t="shared" si="4"/>
+        <v>125.79</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K21" s="18">
         <f t="shared" si="5"/>
-        <v>125.79</v>
-      </c>
-      <c r="J21" s="23">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="6"/>
         <v>116.21</v>
       </c>
       <c r="L21" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F22/K21,0)</f>
         <v>17</v>
       </c>
     </row>
@@ -11171,30 +11171,30 @@
         <v>30</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="G22" s="20">
         <v>-0.03</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116.21</v>
       </c>
       <c r="I22" s="22">
+        <f t="shared" si="4"/>
+        <v>122.02</v>
+      </c>
+      <c r="J22" s="23">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="K22" s="18">
         <f t="shared" si="5"/>
-        <v>122.02</v>
-      </c>
-      <c r="J22" s="23">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="6"/>
         <v>112.72</v>
       </c>
       <c r="L22" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F23/K22,0)</f>
         <v>14</v>
       </c>
     </row>
@@ -11214,23 +11214,23 @@
         <v>-0.03</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112.72</v>
       </c>
       <c r="I23" s="22">
+        <f t="shared" si="4"/>
+        <v>118.36</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="K23" s="18">
         <f t="shared" si="5"/>
-        <v>118.36</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="6"/>
         <v>109.34</v>
       </c>
       <c r="L23" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F24/K23,0)</f>
         <v>15</v>
       </c>
     </row>
@@ -11250,23 +11250,23 @@
         <v>-0.03</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109.34</v>
       </c>
       <c r="I24" s="22">
+        <f t="shared" si="4"/>
+        <v>114.81</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K24" s="18">
         <f t="shared" si="5"/>
-        <v>114.81</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="6"/>
         <v>106.06</v>
       </c>
       <c r="L24" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F25/K24,0)</f>
         <v>11</v>
       </c>
     </row>
@@ -11286,23 +11286,23 @@
         <v>-0.03</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106.06</v>
       </c>
       <c r="I25" s="22">
+        <f t="shared" si="4"/>
+        <v>111.36</v>
+      </c>
+      <c r="J25" s="23">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="K25" s="18">
         <f t="shared" si="5"/>
-        <v>111.36</v>
-      </c>
-      <c r="J25" s="23">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="6"/>
         <v>102.88</v>
       </c>
       <c r="L25" s="16">
-        <f t="shared" si="7"/>
+        <f>ROUND(F26/K25,0)</f>
         <v>12</v>
       </c>
     </row>
@@ -11322,15 +11322,15 @@
         <v>-0.03</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102.88</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>108.02</v>
       </c>
       <c r="J26" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="K26" s="16">

--- a/Lotto/아바타법시트_참조.xlsx
+++ b/Lotto/아바타법시트_참조.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Git\Idea\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E082C1-8960-460F-9D09-E950E5F36FDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F1B9EC-CA2A-4871-9629-3A4757C46AB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="744" activeTab="7" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
+    <workbookView xWindow="17955" yWindow="1410" windowWidth="19950" windowHeight="14175" tabRatio="744" activeTab="1" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
   <sheets>
     <sheet name="FAQ" sheetId="13" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="125">
   <si>
     <t>매수 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,10 @@
   </si>
   <si>
     <t>티어설계 : 주린이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>티어평단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1797,9 +1801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42BC51-A499-4296-93A8-A9628DAD2B88}">
   <dimension ref="C2:AG123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1849,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>82</v>
@@ -7111,9 +7113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA8C04B-54B7-45BB-82C4-11A1E3745EDB}">
   <dimension ref="B2:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7121,10 +7121,10 @@
     <col min="2" max="2" width="36.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="3" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="9.875" style="3" bestFit="1" customWidth="1"/>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -7397,14 +7397,20 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="5"/>
-      <c r="E12" s="84" t="s">
+      <c r="D12" s="84" t="s">
         <v>109</v>
       </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="15">
         <f>$E$2*15%</f>
         <v>4500</v>
       </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7431,7 +7437,7 @@
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="9.875" style="3" bestFit="1" customWidth="1"/>
@@ -7482,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -7790,9 +7796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F8485-8E02-47D1-9B79-96D42ADC7F29}">
   <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7803,7 +7807,7 @@
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
@@ -7853,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -8386,7 +8390,7 @@
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="3"/>
@@ -8436,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -8969,7 +8973,7 @@
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
@@ -9018,7 +9022,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -9682,9 +9686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA34D2E-029C-4D6D-A0F4-21BAF8E7488D}">
   <dimension ref="B2:O26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9695,7 +9697,7 @@
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="11.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="9.875" style="3" bestFit="1" customWidth="1"/>
@@ -9746,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -10520,9 +10522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747308E-9F14-4374-89B2-4F3F86775E84}">
   <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10533,7 +10533,7 @@
     <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
@@ -10582,7 +10582,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>6</v>
@@ -10612,7 +10612,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="16">
-        <f>ROUND(F7/K6,0)</f>
+        <f t="shared" ref="L6:L25" si="0">ROUND(F7/K6,0)</f>
         <v>5</v>
       </c>
     </row>
@@ -10651,7 +10651,7 @@
         <v>169.15</v>
       </c>
       <c r="L7" s="16">
-        <f>ROUND(F8/K7,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -10667,14 +10667,14 @@
         <v>16</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" ref="F8:F22" si="0">$E$2*5%</f>
+        <f t="shared" ref="F8:F22" si="1">$E$2*5%</f>
         <v>2000</v>
       </c>
       <c r="G8" s="20">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H26" si="1">K7</f>
+        <f t="shared" ref="H8:H26" si="2">K7</f>
         <v>169.15</v>
       </c>
       <c r="I8" s="22">
@@ -10682,15 +10682,15 @@
         <v>172.53</v>
       </c>
       <c r="J8" s="23">
-        <f t="shared" ref="J8:J26" si="2">L7</f>
+        <f t="shared" ref="J8:J26" si="3">L7</f>
         <v>12</v>
       </c>
       <c r="K8" s="18">
-        <f t="shared" ref="K8:K12" si="3">ROUND(H8*(G9+1),2)</f>
+        <f t="shared" ref="K8:K12" si="4">ROUND(H8*(G9+1),2)</f>
         <v>167.46</v>
       </c>
       <c r="L8" s="16">
-        <f>ROUND(F9/K8,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
         <v>-0.01</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>167.46</v>
       </c>
       <c r="I9" s="22">
@@ -10718,15 +10718,15 @@
         <v>172.48</v>
       </c>
       <c r="J9" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K9" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>164.95</v>
       </c>
       <c r="L9" s="16">
-        <f>ROUND(F10/K9,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -10746,7 +10746,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>164.95</v>
       </c>
       <c r="I10" s="22">
@@ -10754,15 +10754,15 @@
         <v>170.72</v>
       </c>
       <c r="J10" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K10" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>161.65</v>
       </c>
       <c r="L10" s="16">
-        <f>ROUND(F11/K10,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
         <v>-0.02</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161.65</v>
       </c>
       <c r="I11" s="22">
@@ -10790,15 +10790,15 @@
         <v>169.73</v>
       </c>
       <c r="J11" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>157.61000000000001</v>
       </c>
       <c r="L11" s="16">
-        <f>ROUND(F12/K11,0)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
@@ -10818,23 +10818,23 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157.61000000000001</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" ref="I12:I26" si="4">ROUND(H12*(5%+1),2)</f>
+        <f t="shared" ref="I12:I26" si="5">ROUND(H12*(5%+1),2)</f>
         <v>165.49</v>
       </c>
       <c r="J12" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>152.88</v>
       </c>
       <c r="L12" s="16">
-        <f>ROUND(F13/K12,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -10854,15 +10854,15 @@
         <v>-0.03</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152.88</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>160.52000000000001</v>
       </c>
       <c r="J13" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="K13" s="18">
@@ -10870,7 +10870,7 @@
         <v>148.29</v>
       </c>
       <c r="L13" s="16">
-        <f>ROUND(F14/K13,0)</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
@@ -10883,30 +10883,30 @@
         <v>22</v>
       </c>
       <c r="F14" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G14" s="20">
         <v>-0.03</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>148.29</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>155.69999999999999</v>
       </c>
       <c r="J14" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="K14" s="18">
-        <f t="shared" ref="K14:K25" si="5">ROUND(H14*(G15+1),2)</f>
+        <f t="shared" ref="K14:K25" si="6">ROUND(H14*(G15+1),2)</f>
         <v>143.84</v>
       </c>
       <c r="L14" s="16">
-        <f>ROUND(F15/K14,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -10919,30 +10919,30 @@
         <v>23</v>
       </c>
       <c r="F15" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G15" s="20">
         <v>-0.03</v>
       </c>
       <c r="H15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>143.84</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>151.03</v>
       </c>
       <c r="J15" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="K15" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>139.52000000000001</v>
       </c>
       <c r="L15" s="16">
-        <f>ROUND(F16/K15,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -10955,30 +10955,30 @@
         <v>24</v>
       </c>
       <c r="F16" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G16" s="20">
         <v>-0.03</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>139.52000000000001</v>
       </c>
       <c r="I16" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>146.5</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="K16" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>135.33000000000001</v>
       </c>
       <c r="L16" s="16">
-        <f>ROUND(F17/K16,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -10991,30 +10991,30 @@
         <v>25</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G17" s="20">
         <v>-0.03</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>135.33000000000001</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>142.1</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K17" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>131.27000000000001</v>
       </c>
       <c r="L17" s="16">
-        <f>ROUND(F18/K17,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -11027,30 +11027,30 @@
         <v>26</v>
       </c>
       <c r="F18" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G18" s="20">
         <v>-0.03</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>131.27000000000001</v>
       </c>
       <c r="I18" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>137.83000000000001</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K18" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>127.33</v>
       </c>
       <c r="L18" s="16">
-        <f>ROUND(F19/K18,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -11063,30 +11063,30 @@
         <v>27</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G19" s="20">
         <v>-0.03</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>127.33</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>133.69999999999999</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="K19" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>123.51</v>
       </c>
       <c r="L19" s="16">
-        <f>ROUND(F20/K19,0)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -11099,30 +11099,30 @@
         <v>28</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G20" s="20">
         <v>-0.03</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>123.51</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>129.69</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="K20" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>119.8</v>
       </c>
       <c r="L20" s="16">
-        <f>ROUND(F21/K20,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11135,30 +11135,30 @@
         <v>29</v>
       </c>
       <c r="F21" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G21" s="20">
         <v>-0.03</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.8</v>
       </c>
       <c r="I21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>125.79</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K21" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>116.21</v>
       </c>
       <c r="L21" s="16">
-        <f>ROUND(F22/K21,0)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -11171,30 +11171,30 @@
         <v>30</v>
       </c>
       <c r="F22" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
       <c r="G22" s="20">
         <v>-0.03</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>116.21</v>
       </c>
       <c r="I22" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>122.02</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="K22" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>112.72</v>
       </c>
       <c r="L22" s="16">
-        <f>ROUND(F23/K22,0)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -11214,23 +11214,23 @@
         <v>-0.03</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>112.72</v>
       </c>
       <c r="I23" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>118.36</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="K23" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>109.34</v>
       </c>
       <c r="L23" s="16">
-        <f>ROUND(F24/K23,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -11250,23 +11250,23 @@
         <v>-0.03</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109.34</v>
       </c>
       <c r="I24" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>114.81</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="K24" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>106.06</v>
       </c>
       <c r="L24" s="16">
-        <f>ROUND(F25/K24,0)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -11286,23 +11286,23 @@
         <v>-0.03</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>106.06</v>
       </c>
       <c r="I25" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>111.36</v>
       </c>
       <c r="J25" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="K25" s="18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>102.88</v>
       </c>
       <c r="L25" s="16">
-        <f>ROUND(F26/K25,0)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -11322,15 +11322,15 @@
         <v>-0.03</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>102.88</v>
       </c>
       <c r="I26" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>108.02</v>
       </c>
       <c r="J26" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="K26" s="16">
@@ -11404,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>82</v>

--- a/Lotto/아바타법시트_참조.xlsx
+++ b/Lotto/아바타법시트_참조.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minkyu\Desktop\Git\Idea\Lotto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C1473-7901-4556-BC96-5EE77B2D695D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDAE4D8-822A-4AA4-BBB6-391CF1E71A16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="744" xr2:uid="{28AF4D6A-79B6-4A32-920C-87AF5D4B5EE8}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="124">
   <si>
     <t>매수 기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,18 +455,51 @@
     <t>티어평단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할 전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로그램인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할후 실제 평단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 평단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>액면분할시 오차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="0.0000%"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +692,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -736,7 +777,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1050,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1602,6 +1655,72 @@
           <a:endParaRPr lang="ko-KR" altLang="ko-KR">
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2854FB2B-3EF7-4049-8746-A4F319946997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11991975" y="838200"/>
+          <a:ext cx="4286250" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3529,7 +3648,7 @@
         <v>64</v>
       </c>
       <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -3567,6 +3686,7 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
@@ -3603,6 +3723,7 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
@@ -3651,7 +3772,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB8F8485-8E02-47D1-9B79-96D42ADC7F29}">
-  <dimension ref="B2:M19"/>
+  <dimension ref="B2:S26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3667,10 +3788,15 @@
     <col min="8" max="8" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="13.875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="14" max="14" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="3"/>
+    <col min="16" max="16" width="8.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:19" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
@@ -3681,7 +3807,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B3" s="76" t="s">
         <v>11</v>
       </c>
@@ -3692,12 +3818,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N4" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
         <v>88</v>
       </c>
@@ -3728,8 +3857,24 @@
       <c r="L5" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="94"/>
+      <c r="O5" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="P5" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="R5" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -3747,8 +3892,26 @@
         <f t="shared" ref="L6:L12" si="0">ROUND(F7/K6,0)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" s="61">
+        <v>200</v>
+      </c>
+      <c r="P6" s="3">
+        <f>VLOOKUP(O6,D:H,5,TRUE)</f>
+        <v>88.56</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>P6</f>
+        <v>88.56</v>
+      </c>
+      <c r="R6" s="3">
+        <f>P6/2</f>
+        <v>44.28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>110</v>
       </c>
@@ -3786,8 +3949,23 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="3">
+        <f>O6*2</f>
+        <v>400</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>VLOOKUP(O7,D:H,5,TRUE)</f>
+        <v>57.28</v>
+      </c>
+      <c r="S7" s="93">
+        <f>R6/Q7-1</f>
+        <v>-0.22695530726256985</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>113</v>
       </c>
@@ -3825,8 +4003,10 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="91"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>SUM(L$6:L8)</f>
         <v>102</v>
@@ -3862,7 +4042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>SUM(L$6:L9)</f>
         <v>129</v>
@@ -3899,7 +4079,7 @@
       </c>
       <c r="M10" s="14"/>
     </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5">
         <f>SUM(L$6:L10)</f>
         <v>156</v>
@@ -3935,7 +4115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <f>SUM(L$6:L11)</f>
         <v>184</v>
@@ -3971,7 +4151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
         <f>SUM(L$6:L12)</f>
         <v>213</v>
@@ -4007,7 +4187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>SUM(L$6:L13)</f>
         <v>243</v>
@@ -4043,7 +4223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <f>SUM(L$6:L14)</f>
         <v>274</v>
@@ -4079,7 +4259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f>SUM(L$6:L15)</f>
         <v>291</v>
@@ -4220,6 +4400,9 @@
       <c r="L19" s="16">
         <v>0</v>
       </c>
+    </row>
+    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="91"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5717,6 +5900,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="M8" s="91"/>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
@@ -6379,7 +6563,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747308E-9F14-4374-89B2-4F3F86775E84}">
-  <dimension ref="B2:L26"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6397,7 +6581,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="13.5" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6592,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B3" s="89" t="s">
         <v>11</v>
       </c>
@@ -6419,12 +6603,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="90" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="89" t="s">
         <v>88</v>
       </c>
@@ -6456,7 +6640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
         <v>14</v>
@@ -6475,7 +6659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="27" t="s">
         <v>110</v>
       </c>
@@ -6514,7 +6698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27" t="s">
         <v>111</v>
       </c>
@@ -6552,8 +6736,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="91"/>
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="5">
         <f>SUM(L$6:L8)</f>
         <v>34</v>
@@ -6589,7 +6774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="5">
         <f>SUM(L$6:L9)</f>
         <v>51</v>
@@ -6625,7 +6810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="5">
         <f>SUM(L$6:L10)</f>
         <v>68</v>
@@ -6661,7 +6846,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5">
         <f>SUM(L$6:L11)</f>
         <v>86</v>
@@ -6697,7 +6882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" s="5">
         <f>SUM(L$6:L12)</f>
         <v>102</v>
@@ -6733,7 +6918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="5">
         <f>SUM(L$6:L13)</f>
         <v>115</v>
@@ -6769,7 +6954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="5">
         <f>SUM(L$6:L14)</f>
         <v>129</v>
@@ -6805,7 +6990,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="5">
         <f>SUM(L$6:L15)</f>
         <v>143</v>
@@ -6841,7 +7026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="5">
         <f>SUM(L$6:L16)</f>
         <v>158</v>
@@ -6876,8 +7061,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="91"/>
+    </row>
+    <row r="18" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="5">
         <f>SUM(L$6:L17)</f>
         <v>173</v>
@@ -6913,7 +7099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="5">
         <f>SUM(L$6:L18)</f>
         <v>189</v>
@@ -6949,7 +7135,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5">
         <f>SUM(L$6:L19)</f>
         <v>205</v>
@@ -6985,7 +7171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="5">
         <f>SUM(L$6:L20)</f>
         <v>222</v>
@@ -7021,7 +7207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="5">
         <f>SUM(L$6:L21)</f>
         <v>239</v>
@@ -7057,7 +7243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>SUM(L$6:L22)</f>
         <v>253</v>
@@ -7093,7 +7279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="5">
         <f>SUM(L$6:L23)</f>
         <v>268</v>
@@ -7129,7 +7315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="5">
         <f>SUM(L$6:L24)</f>
         <v>279</v>
@@ -7165,7 +7351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="5">
         <f>SUM(L$6:L25)</f>
         <v>291</v>
@@ -7318,15 +7504,15 @@
     </row>
     <row r="3" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="28"/>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="96" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="57"/>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="96" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="57"/>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="28"/>
@@ -7347,6 +7533,7 @@
         <f t="shared" ref="S3:S48" si="0">ROUND(M4/R3,0)</f>
         <v>6</v>
       </c>
+      <c r="T3" s="3"/>
       <c r="U3" s="37" t="s">
         <v>72</v>
       </c>
@@ -7374,11 +7561,11 @@
     </row>
     <row r="4" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="28"/>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="57"/>
-      <c r="F4" s="92"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="57"/>
-      <c r="H4" s="92"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="28"/>
       <c r="K4" s="5" t="s">
         <v>15</v>
@@ -7414,6 +7601,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="T4" s="3"/>
       <c r="U4" s="37" t="s">
         <v>73</v>
       </c>
@@ -7502,6 +7690,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="T5" s="91"/>
       <c r="U5" s="37" t="str">
         <f>D6</f>
         <v>투자금(달러)</v>
@@ -8509,11 +8698,11 @@
     </row>
     <row r="17" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="58"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
@@ -8677,13 +8866,13 @@
     </row>
     <row r="19" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="59"/>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
       <c r="I19" s="27"/>
       <c r="K19" s="5" t="s">
         <v>30</v>
@@ -8762,13 +8951,13 @@
     </row>
     <row r="20" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="60"/>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="27"/>
       <c r="K20" s="5" t="s">
         <v>31</v>
@@ -8847,13 +9036,13 @@
     </row>
     <row r="21" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="59"/>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="27"/>
       <c r="K21" s="5" t="s">
         <v>32</v>
@@ -11982,15 +12171,15 @@
     </row>
     <row r="3" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="28"/>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="96" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="79"/>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="96" t="s">
         <v>78</v>
       </c>
       <c r="G3" s="79"/>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="96" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="28"/>
@@ -12038,11 +12227,11 @@
     </row>
     <row r="4" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="28"/>
-      <c r="D4" s="92"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="79"/>
-      <c r="F4" s="92"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="79"/>
-      <c r="H4" s="92"/>
+      <c r="H4" s="96"/>
       <c r="I4" s="28"/>
       <c r="K4" s="5" t="s">
         <v>15</v>
@@ -12453,6 +12642,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="T8" s="3"/>
       <c r="U8" s="37" t="str">
         <f>U4</f>
         <v>매도목표</v>
@@ -12550,6 +12740,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="T9" s="91"/>
       <c r="X9" s="39">
         <f>SUM(AF$3:AF8)</f>
         <v>24</v>
@@ -13173,11 +13364,11 @@
     </row>
     <row r="17" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="80"/>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="32"/>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
@@ -13341,13 +13532,13 @@
     </row>
     <row r="19" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="78"/>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
       <c r="I19" s="27"/>
       <c r="K19" s="5" t="s">
         <v>30</v>
@@ -13426,13 +13617,13 @@
     </row>
     <row r="20" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="81"/>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
       <c r="I20" s="27"/>
       <c r="K20" s="5" t="s">
         <v>31</v>
@@ -13511,13 +13702,13 @@
     </row>
     <row r="21" spans="3:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="78"/>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
       <c r="I21" s="27"/>
       <c r="K21" s="5" t="s">
         <v>32</v>
